--- a/data/trans_bre/P14B23_2016_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P14B23_2016_2023-Habitat-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>3.521330773971122</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4087499111080521</v>
+        <v>0.4087499111080514</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>2.590059082570916</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.08998566022330105</v>
+        <v>0.0899856602233009</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.744809199256312</v>
+        <v>1.651770531842273</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.680758423873444</v>
+        <v>-1.743362110223268</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.7771253488946798</v>
+        <v>0.7420989306401873</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2996599840810179</v>
+        <v>-0.2924625830362133</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.49397279346406</v>
+        <v>5.465823235283607</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.346890882314481</v>
+        <v>2.413043782099233</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7.456551965051316</v>
+        <v>7.663718027381049</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.7023302762481574</v>
+        <v>0.7297175984438857</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.035988001680694</v>
+        <v>2.060081306790683</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.98502926352138</v>
+        <v>2.140188353857663</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.382883337563681</v>
+        <v>1.271817395550692</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6228651521902889</v>
+        <v>0.7374036348243577</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.870631964432212</v>
+        <v>5.001493310747718</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.848223700626553</v>
+        <v>4.960841010530598</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>10.02851644195969</v>
+        <v>9.232297436338298</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.311811041670542</v>
+        <v>3.660190903663884</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.396855302585742</v>
+        <v>0.3322045087221377</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.491096875255363</v>
+        <v>1.432092520309923</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.04375406700988371</v>
+        <v>0.1062648137832871</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.2934470746942058</v>
+        <v>0.3247242357411116</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.832175378178762</v>
+        <v>3.740052871388462</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.774741923628799</v>
+        <v>5.696994416746234</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>4.01184548985823</v>
+        <v>4.203054883066198</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.814978596905762</v>
+        <v>2.877018346736596</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>3.063602882574098</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>2.263494480351348</v>
+        <v>2.263494480351349</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>1.772532516586972</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.5453983744248874</v>
+        <v>0.5453983744248877</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.65353206510972</v>
+        <v>1.339279007750592</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3986975530368591</v>
+        <v>0.2808118034669354</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.6073484783276331</v>
+        <v>0.4463602128272409</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.05866549569689244</v>
+        <v>0.05892486731019894</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.769757573342899</v>
+        <v>4.766520581877718</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.789414711604223</v>
+        <v>3.82914813595787</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.916189647938769</v>
+        <v>3.782730668520051</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.116346423855114</v>
+        <v>1.144023413221751</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>3.002995427706014</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.613441058333245</v>
+        <v>2.613441058333246</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>2.191814170264379</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.784054551303826</v>
+        <v>0.7840545513038262</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.228353116758742</v>
+        <v>2.189520783960458</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.663273539500607</v>
+        <v>1.747876436563411</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1.282399475436057</v>
+        <v>1.306162695570441</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.4162760138811117</v>
+        <v>0.4511211699160346</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.83711324725617</v>
+        <v>3.809821036141889</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.510511868656216</v>
+        <v>3.626178027036528</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3.56743307262092</v>
+        <v>3.475883763298539</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.234720582871541</v>
+        <v>1.278256847035783</v>
       </c>
     </row>
     <row r="19">
